--- a/data/draft/Data_Tansplants_US.xlsx
+++ b/data/draft/Data_Tansplants_US.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="94">
   <si>
     <t xml:space="preserve">ORGANI</t>
   </si>
@@ -292,6 +292,9 @@
     <t xml:space="preserve">Repeat Transplant</t>
   </si>
   <si>
+    <t xml:space="preserve">2010-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">RIPETIZ. TRAP - TASSI</t>
   </si>
   <si>
@@ -305,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
@@ -314,6 +317,7 @@
     <numFmt numFmtId="169" formatCode="mmm\-yy"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -513,7 +517,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,6 +706,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,13 +727,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AO263"/>
+  <dimension ref="A1:AO272"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L257" activeCellId="0" sqref="L257"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K267" activeCellId="0" sqref="K267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.85"/>
@@ -8156,7 +8164,7 @@
         <v>33.7635598859912</v>
       </c>
       <c r="N88" s="6" t="n">
-        <f aca="false">IMABS(K88-I88)</f>
+        <f aca="false">imabs(K88-I88)</f>
         <v>0.140549703049864</v>
       </c>
       <c r="Q88" s="15" t="n">
@@ -8168,7 +8176,7 @@
         <v>13.6932313125896</v>
       </c>
       <c r="V88" s="6" t="n">
-        <f aca="false">IMABS(S88-Q88)</f>
+        <f aca="false">imabs(S88-Q88)</f>
         <v>0.146655970123817</v>
       </c>
     </row>
@@ -8237,7 +8245,7 @@
         <v>22.7657538431919</v>
       </c>
       <c r="N91" s="6" t="n">
-        <f aca="false">IMABS(K91-I91)</f>
+        <f aca="false">imabs(K91-I91)</f>
         <v>0.089498135429352</v>
       </c>
       <c r="Q91" s="15" t="n">
@@ -8249,7 +8257,7 @@
         <v>9.23293439533442</v>
       </c>
       <c r="V91" s="6" t="n">
-        <f aca="false">IMABS(S91-Q91)</f>
+        <f aca="false">imabs(S91-Q91)</f>
         <v>0.0940062439349916</v>
       </c>
     </row>
@@ -8296,7 +8304,7 @@
         <v>10.2513559616933</v>
       </c>
       <c r="N94" s="6" t="n">
-        <f aca="false">IMABS(K94-I94)</f>
+        <f aca="false">imabs(K94-I94)</f>
         <v>0.0294381534741657</v>
       </c>
       <c r="Q94" s="15" t="n">
@@ -8308,7 +8316,7 @@
         <v>4.15756481026171</v>
       </c>
       <c r="V94" s="6" t="n">
-        <f aca="false">IMABS(S94-Q94)</f>
+        <f aca="false">imabs(S94-Q94)</f>
         <v>0.0310196646241341</v>
       </c>
     </row>
@@ -8359,7 +8367,7 @@
         <v>2.620039784682</v>
       </c>
       <c r="N97" s="6" t="n">
-        <f aca="false">IMABS(K97-I97)</f>
+        <f aca="false">imabs(K97-I97)</f>
         <v>0.0209530266911333</v>
       </c>
       <c r="Q97" s="15" t="n">
@@ -8371,7 +8379,7 @@
         <v>1.06258969554699</v>
       </c>
       <c r="V97" s="6" t="n">
-        <f aca="false">IMABS(S97-Q97)</f>
+        <f aca="false">imabs(S97-Q97)</f>
         <v>0.0209719482886257</v>
       </c>
     </row>
@@ -8500,7 +8508,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="6" t="n">
-        <f aca="false">IMABS(K101-I101)</f>
+        <f aca="false">imabs(K101-I101)</f>
         <v>0.00610626707396041</v>
       </c>
       <c r="O101" s="3"/>
@@ -8644,7 +8652,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="6" t="n">
-        <f aca="false">IMABS(K104-I104)</f>
+        <f aca="false">imabs(K104-I104)</f>
         <v>0.00450810850563496</v>
       </c>
       <c r="O104" s="2"/>
@@ -8737,7 +8745,7 @@
         <v>0.0143668992778232</v>
       </c>
       <c r="N107" s="6" t="n">
-        <f aca="false">IMABS(K107-I107)</f>
+        <f aca="false">imabs(K107-I107)</f>
         <v>0.00158151114996932</v>
       </c>
     </row>
@@ -8766,7 +8774,7 @@
         <v>0.00367188963402244</v>
       </c>
       <c r="N110" s="6" t="n">
-        <f aca="false">IMABS(K110-I110)</f>
+        <f aca="false">imabs(K110-I110)</f>
         <v>1.8921597492757E-005</v>
       </c>
       <c r="AK110" s="7"/>
@@ -21847,9 +21855,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="8" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -21860,17 +21868,10 @@
       <c r="H256" s="8"/>
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
-      <c r="K256" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L256" s="0" t="n">
-        <f aca="false">D242/D241</f>
-        <v>0.882676516914122</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B257" s="40"/>
       <c r="C257" s="40"/>
@@ -21881,19 +21882,15 @@
         <v>22</v>
       </c>
       <c r="G257" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H257" s="40"/>
       <c r="I257" s="40"/>
       <c r="J257" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="L257" s="0" t="n">
-        <f aca="false">D243/D241</f>
-        <v>0.117323483085878</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
         <v>3</v>
       </c>
@@ -21902,12 +21899,12 @@
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="6" t="n">
-        <f aca="false">AVERAGE(L238:Q238)</f>
-        <v>17374.1666666667</v>
-      </c>
-      <c r="E258" s="6" t="n">
+        <f aca="false">AVERAGE(I238:R238)</f>
+        <v>18556.2</v>
+      </c>
+      <c r="E258" s="47" t="n">
         <f aca="false">D258/R66</f>
-        <v>47.6004566210046</v>
+        <v>50.838904109589</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>3</v>
@@ -21920,27 +21917,20 @@
         <f aca="false">J259+J260</f>
         <v>1</v>
       </c>
-      <c r="K258" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="L258" s="0" t="n">
-        <f aca="false">D245/D244</f>
-        <v>0.873463182157076</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
       <c r="B259" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="6" t="n">
-        <f aca="false">AVERAGE(L239:Q239)</f>
-        <v>15288.1666666667</v>
-      </c>
-      <c r="E259" s="0" t="n">
+        <f aca="false">AVERAGE(I239:R239)</f>
+        <v>16423.2</v>
+      </c>
+      <c r="E259" s="47" t="n">
         <f aca="false">D259/R66</f>
-        <v>41.8853881278539</v>
+        <v>44.9950684931507</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2" t="s">
@@ -21949,26 +21939,22 @@
       <c r="I259" s="2"/>
       <c r="J259" s="0" t="n">
         <f aca="false">D259/D258</f>
-        <v>0.879936687610917</v>
-      </c>
-      <c r="L259" s="0" t="n">
-        <f aca="false">D246/D244</f>
-        <v>0.126536817842924</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.885051896401203</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2"/>
       <c r="B260" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="6" t="n">
-        <f aca="false">AVERAGE(L240:Q240)</f>
-        <v>2086</v>
-      </c>
-      <c r="E260" s="0" t="n">
+        <f aca="false">AVERAGE(I240:R240)</f>
+        <v>2133</v>
+      </c>
+      <c r="E260" s="47" t="n">
         <f aca="false">D260/R66</f>
-        <v>5.71506849315069</v>
+        <v>5.84383561643836</v>
       </c>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="s">
@@ -21977,35 +21963,307 @@
       <c r="I260" s="2"/>
       <c r="J260" s="0" t="n">
         <f aca="false">D260/D258</f>
-        <v>0.120063312389083</v>
-      </c>
-      <c r="K260" s="0" t="s">
+        <v>0.114948103598797</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="0" t="n">
+        <f aca="false">AVERAGE(I241:R241)</f>
+        <v>8368.1</v>
+      </c>
+      <c r="E261" s="47" t="n">
+        <f aca="false">D261/R66</f>
+        <v>22.926301369863</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I261" s="2"/>
+      <c r="J261" s="0" t="n">
+        <f aca="false">J263+J262</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2"/>
+      <c r="B262" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="0" t="n">
+        <f aca="false">AVERAGE(I242:R242)</f>
+        <v>7392.5</v>
+      </c>
+      <c r="E262" s="47" t="n">
+        <f aca="false">D262/R66</f>
+        <v>20.2534246575342</v>
+      </c>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I262" s="2"/>
+      <c r="J262" s="0" t="n">
+        <f aca="false">D262/D261</f>
+        <v>0.883414395143461</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2"/>
+      <c r="B263" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" s="0" t="n">
+        <f aca="false">AVERAGE(I243:R243)</f>
+        <v>975.6</v>
+      </c>
+      <c r="E263" s="47" t="n">
+        <f aca="false">D263/R66</f>
+        <v>2.67287671232877</v>
+      </c>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I263" s="2"/>
+      <c r="J263" s="0" t="n">
+        <f aca="false">D263/D261</f>
+        <v>0.116585604856539</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" s="0" t="n">
+        <f aca="false">AVERAGE(I244:R244)</f>
+        <v>6772.9</v>
+      </c>
+      <c r="E264" s="47" t="n">
+        <f aca="false">D264/R66</f>
+        <v>18.5558904109589</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I264" s="2"/>
+      <c r="J264" s="0" t="n">
+        <f aca="false">J265+J266</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2"/>
+      <c r="B265" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" s="0" t="n">
+        <f aca="false">AVERAGE(I245:R245)</f>
+        <v>5961.7</v>
+      </c>
+      <c r="E265" s="47" t="n">
+        <f aca="false">D265/R66</f>
+        <v>16.3334246575342</v>
+      </c>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I265" s="2"/>
+      <c r="J265" s="0" t="n">
+        <f aca="false">D265/D264</f>
+        <v>0.880228557929395</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="0" t="n">
+        <f aca="false">AVERAGE(I246:R246)</f>
+        <v>811.2</v>
+      </c>
+      <c r="E266" s="47" t="n">
+        <f aca="false">D266/R66</f>
+        <v>2.22246575342466</v>
+      </c>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I266" s="2"/>
+      <c r="J266" s="0" t="n">
+        <f aca="false">D266/D264</f>
+        <v>0.119771442070605</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L260" s="0" t="n">
-        <f aca="false">D248/D247</f>
-        <v>0.899241408851612</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L261" s="0" t="n">
-        <f aca="false">D249/D247</f>
-        <v>0.100758591148388</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K262" s="0" t="s">
+      <c r="B267" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" s="0" t="n">
+        <f aca="false">AVERAGE(I247:R247)</f>
+        <v>2504.1</v>
+      </c>
+      <c r="E267" s="47" t="n">
+        <f aca="false">D267/R66</f>
+        <v>6.86054794520548</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I267" s="2"/>
+      <c r="J267" s="0" t="n">
+        <f aca="false">J269+J268</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="0" t="n">
+        <f aca="false">AVERAGE(I248:R248)</f>
+        <v>2259</v>
+      </c>
+      <c r="E268" s="47" t="n">
+        <f aca="false">D268/R66</f>
+        <v>6.18904109589041</v>
+      </c>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I268" s="2"/>
+      <c r="J268" s="0" t="n">
+        <f aca="false">D268/D267</f>
+        <v>0.902120522343357</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2"/>
+      <c r="B269" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C269" s="2"/>
+      <c r="D269" s="0" t="n">
+        <f aca="false">AVERAGE(I249:R249)</f>
+        <v>245.1</v>
+      </c>
+      <c r="E269" s="47" t="n">
+        <f aca="false">D269/R66</f>
+        <v>0.671506849315068</v>
+      </c>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I269" s="2"/>
+      <c r="J269" s="0" t="n">
+        <f aca="false">D269/D267</f>
+        <v>0.0978794776566431</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L262" s="0" t="n">
-        <f aca="false">D251/D250</f>
-        <v>0.875396673676161</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L263" s="0" t="n">
-        <f aca="false">D252/D250</f>
-        <v>0.124603326323839</v>
+      <c r="B270" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" s="0" t="n">
+        <f aca="false">AVERAGE(I250:R250)</f>
+        <v>911.1</v>
+      </c>
+      <c r="E270" s="47" t="n">
+        <f aca="false">D270/R66</f>
+        <v>2.49616438356164</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I270" s="2"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2"/>
+      <c r="B271" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="0" t="n">
+        <f aca="false">AVERAGE(I251:R251)</f>
+        <v>810</v>
+      </c>
+      <c r="E271" s="47" t="n">
+        <f aca="false">D271/R66</f>
+        <v>2.21917808219178</v>
+      </c>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I271" s="2"/>
+      <c r="J271" s="0" t="n">
+        <f aca="false">D271/D270</f>
+        <v>0.889035232136977</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2"/>
+      <c r="B272" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" s="0" t="n">
+        <f aca="false">AVERAGE(I252:R252)</f>
+        <v>101.1</v>
+      </c>
+      <c r="E272" s="47" t="n">
+        <f aca="false">D272/R66</f>
+        <v>0.276986301369863</v>
+      </c>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I272" s="2"/>
+      <c r="J272" s="0" t="n">
+        <f aca="false">D272/D270</f>
+        <v>0.110964767863023</v>
       </c>
     </row>
   </sheetData>
